--- a/7_Allegati/PianificazioniDB.xlsx
+++ b/7_Allegati/PianificazioniDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3anno\progetti\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3anno\progetti\git\LaboProgetti\7_Allegati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D57498-806D-43CE-849C-C621C1422D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CDA434-2CF4-4032-B1D8-E85AD3646EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{7FF6BFF7-4A22-4303-91DE-A5DE3F855BE7}"/>
+    <workbookView xWindow="30360" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{7FF6BFF7-4A22-4303-91DE-A5DE3F855BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Canzone</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>bio</t>
+  </si>
+  <si>
+    <t>Username pk</t>
+  </si>
+  <si>
+    <t>Password pk</t>
+  </si>
+  <si>
+    <t>Username fk</t>
+  </si>
+  <si>
+    <t>Password fk</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -140,8 +155,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB2B7667-4877-4B53-8EC0-A4E824E37DBB}" name="Tabella2" displayName="Tabella2" ref="D4:D7" totalsRowShown="0">
-  <autoFilter ref="D4:D7" xr:uid="{DB2B7667-4877-4B53-8EC0-A4E824E37DBB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB2B7667-4877-4B53-8EC0-A4E824E37DBB}" name="Tabella2" displayName="Tabella2" ref="D4:D9" totalsRowShown="0">
+  <autoFilter ref="D4:D9" xr:uid="{DB2B7667-4877-4B53-8EC0-A4E824E37DBB}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{4B21A358-2814-41D4-A218-94ECD2C98B3B}" name="Playlist"/>
   </tableColumns>
@@ -154,6 +169,16 @@
   <autoFilter ref="F4:F8" xr:uid="{00A24FCD-BE7F-40CD-ADFB-6756F2191721}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{90C6E745-CCF0-4362-863E-D1EA87738E05}" name="Contine"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{96B12D2E-DE1D-4C7A-93C0-06FF973B2396}" name="Tabella25" displayName="Tabella25" ref="H4:H7" totalsRowShown="0">
+  <autoFilter ref="H4:H7" xr:uid="{96B12D2E-DE1D-4C7A-93C0-06FF973B2396}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{EE559B16-A6AE-4890-A934-2B81D20A4473}" name="Account"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2F8285-4E85-42A7-848F-5A36811D85D8}">
-  <dimension ref="B4:F10"/>
+  <dimension ref="B4:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,9 +512,10 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -499,8 +525,11 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -510,8 +539,11 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -521,8 +553,11 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -532,31 +567,41 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/7_Allegati/PianificazioniDB.xlsx
+++ b/7_Allegati/PianificazioniDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3anno\progetti\git\LaboProgetti\7_Allegati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CDA434-2CF4-4032-B1D8-E85AD3646EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB124EB8-8072-44B8-A89C-4EB707F44D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{7FF6BFF7-4A22-4303-91DE-A5DE3F855BE7}"/>
+    <workbookView xWindow="-27630" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{7FF6BFF7-4A22-4303-91DE-A5DE3F855BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Canzone</t>
   </si>
@@ -53,43 +53,40 @@
     <t>Album</t>
   </si>
   <si>
-    <t>Genere</t>
-  </si>
-  <si>
-    <t>fileMP3</t>
-  </si>
-  <si>
     <t>Playlist</t>
   </si>
   <si>
     <t>Contine</t>
   </si>
   <si>
-    <t>Canzone.titolo pk</t>
-  </si>
-  <si>
-    <t>Canzone.autore pk</t>
-  </si>
-  <si>
-    <t>Playlist.Titolo pk</t>
-  </si>
-  <si>
     <t>bio</t>
   </si>
   <si>
     <t>Username pk</t>
   </si>
   <si>
-    <t>Password pk</t>
-  </si>
-  <si>
     <t>Username fk</t>
   </si>
   <si>
-    <t>Password fk</t>
-  </si>
-  <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>fk_titoliCanzoni pk</t>
+  </si>
+  <si>
+    <t>fk_autoreCanzoni pk</t>
+  </si>
+  <si>
+    <t>fk_playlistTitolo pk</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Cover</t>
   </si>
 </sst>
 </file>
@@ -105,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -504,7 +508,7 @@
   <dimension ref="B4:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -534,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -551,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -562,13 +566,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -576,23 +580,21 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/7_Allegati/PianificazioniDB.xlsx
+++ b/7_Allegati/PianificazioniDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3anno\progetti\git\LaboProgetti\7_Allegati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB124EB8-8072-44B8-A89C-4EB707F44D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344F512C-BFAC-4799-9E58-F65C93AA8B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{7FF6BFF7-4A22-4303-91DE-A5DE3F855BE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FF6BFF7-4A22-4303-91DE-A5DE3F855BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Canzone</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Titolo pk</t>
   </si>
   <si>
-    <t>Autore pk</t>
-  </si>
-  <si>
     <t>Album</t>
   </si>
   <si>
@@ -65,21 +62,12 @@
     <t>Username pk</t>
   </si>
   <si>
-    <t>Username fk</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>fk_titoliCanzoni pk</t>
-  </si>
-  <si>
-    <t>fk_autoreCanzoni pk</t>
-  </si>
-  <si>
     <t>fk_playlistTitolo pk</t>
   </si>
   <si>
@@ -87,6 +75,21 @@
   </si>
   <si>
     <t>Cover</t>
+  </si>
+  <si>
+    <t>fk_idCanzone pk</t>
+  </si>
+  <si>
+    <t>fk_username</t>
+  </si>
+  <si>
+    <t>id pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titolo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autore </t>
   </si>
 </sst>
 </file>
@@ -149,8 +152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D92C91A-8194-4884-B4F3-19EB45D4DE1E}" name="Tabella1" displayName="Tabella1" ref="B4:B10" totalsRowShown="0">
-  <autoFilter ref="B4:B10" xr:uid="{9D92C91A-8194-4884-B4F3-19EB45D4DE1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D92C91A-8194-4884-B4F3-19EB45D4DE1E}" name="Tabella1" displayName="Tabella1" ref="B4:B11" totalsRowShown="0">
+  <autoFilter ref="B4:B11" xr:uid="{9D92C91A-8194-4884-B4F3-19EB45D4DE1E}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{63D3298A-A58C-420D-A031-27B222132F9B}" name="Canzone"/>
   </tableColumns>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2F8285-4E85-42A7-848F-5A36811D85D8}">
-  <dimension ref="B4:H10"/>
+  <dimension ref="B4:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
@@ -538,63 +541,66 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
         <v>13</v>
       </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/7_Allegati/PianificazioniDB.xlsx
+++ b/7_Allegati/PianificazioniDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3anno\progetti\git\LaboProgetti\7_Allegati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344F512C-BFAC-4799-9E58-F65C93AA8B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A05C0DD-EAE5-469C-8911-C694C97CDA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FF6BFF7-4A22-4303-91DE-A5DE3F855BE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FF6BFF7-4A22-4303-91DE-A5DE3F855BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Canzone</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="B4:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
